--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4612D9B-2FA9-44A7-B06E-22379FEAB045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F156657-2765-477E-B2BA-130660AD04B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Prototype Pattern</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>Adapter Pattern</t>
+  </si>
+  <si>
+    <t>Decorator Pattern</t>
+  </si>
+  <si>
+    <t>Proxy Pattern</t>
   </si>
 </sst>
 </file>
@@ -483,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,12 +784,60 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45177</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F156657-2765-477E-B2BA-130660AD04B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A187B8A-3937-43BC-A2A7-3BF2E95474C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Proxy Pattern</t>
+  </si>
+  <si>
+    <t>Adapter and Proxy correction</t>
   </si>
 </sst>
 </file>
@@ -495,11 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,6 +841,20 @@
       </c>
       <c r="D20" s="5">
         <v>45177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45180</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A187B8A-3937-43BC-A2A7-3BF2E95474C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55CCA50-6E07-40F9-91A0-03ADCE0E9D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="5760" yWindow="1956" windowWidth="17280" windowHeight="8964" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>Adapter and Proxy correction</t>
+  </si>
+  <si>
+    <t>Façade Pattern</t>
+  </si>
+  <si>
+    <t>Composite, Decorator Pattern</t>
+  </si>
+  <si>
+    <t>Composite, Decorator, Façade correction, Chain of Responsibility</t>
+  </si>
+  <si>
+    <t>File IO, Observer Pattern</t>
+  </si>
+  <si>
+    <t>File IO, Collections</t>
   </si>
 </sst>
 </file>
@@ -498,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,6 +870,90 @@
       </c>
       <c r="D21" s="5">
         <v>45180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45189</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55CCA50-6E07-40F9-91A0-03ADCE0E9D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA37A7-8E36-4769-A111-B6599D642418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1956" windowWidth="17280" windowHeight="8964" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -132,7 +132,19 @@
     <t>File IO, Observer Pattern</t>
   </si>
   <si>
-    <t>File IO, Collections</t>
+    <t>File IO contd.</t>
+  </si>
+  <si>
+    <t>Collections- till Stack, Queue theory</t>
+  </si>
+  <si>
+    <t>Collections completed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Generics, Delegates</t>
   </si>
 </sst>
 </file>
@@ -513,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,6 +715,9 @@
       <c r="D9" s="5">
         <v>45162</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -717,6 +732,9 @@
       <c r="D10" s="5">
         <v>45163</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -731,6 +749,9 @@
       <c r="D11" s="5">
         <v>45166</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -745,6 +766,9 @@
       <c r="D12" s="5">
         <v>45167</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -759,6 +783,9 @@
       <c r="D13" s="5">
         <v>45168</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -773,6 +800,9 @@
       <c r="D14" s="5">
         <v>45169</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -787,6 +817,9 @@
       <c r="D15" s="5">
         <v>45170</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -801,8 +834,11 @@
       <c r="D16" s="5">
         <v>45173</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -815,8 +851,11 @@
       <c r="D17" s="5">
         <v>45174</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -829,8 +868,11 @@
       <c r="D18" s="5">
         <v>45175</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -843,8 +885,11 @@
       <c r="D19" s="5">
         <v>45176</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -857,8 +902,11 @@
       <c r="D20" s="5">
         <v>45177</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -871,8 +919,11 @@
       <c r="D21" s="5">
         <v>45180</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -885,8 +936,11 @@
       <c r="D22" s="5">
         <v>45181</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -899,8 +953,11 @@
       <c r="D23" s="5">
         <v>45182</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -913,8 +970,11 @@
       <c r="D24" s="5">
         <v>45183</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -927,8 +987,11 @@
       <c r="D25" s="5">
         <v>45184</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -941,8 +1004,11 @@
       <c r="D26" s="5">
         <v>45187</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -954,6 +1020,57 @@
       </c>
       <c r="D27" s="5">
         <v>45189</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45190</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45191</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45194</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA37A7-8E36-4769-A111-B6599D642418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF893EA-DF52-4999-B9E7-8E0CA33F9525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Generics, Delegates</t>
+  </si>
+  <si>
+    <t>Delegates, Multithreading</t>
   </si>
 </sst>
 </file>
@@ -525,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,6 +1074,23 @@
       </c>
       <c r="D30" s="5">
         <v>45194</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45195</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF893EA-DF52-4999-B9E7-8E0CA33F9525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BAE574-0478-4FCC-ABAE-F592ED958E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Delegates, Multithreading</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
   </si>
 </sst>
 </file>
@@ -528,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,6 +1094,23 @@
       </c>
       <c r="D31" s="5">
         <v>45195</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45196</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BAE574-0478-4FCC-ABAE-F592ED958E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886E557A-376A-42DD-8D31-2ECB18836550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Multithreading</t>
+  </si>
+  <si>
+    <t>Multithreading contd.</t>
+  </si>
+  <si>
+    <t>RESTful Web Services- Order Booking Portal</t>
+  </si>
+  <si>
+    <t>Web Services - creating and consuming (using .NET core)</t>
+  </si>
+  <si>
+    <t>Web Services- creating a student portal, Web Services (using .NET framework)</t>
+  </si>
+  <si>
+    <t>RESTful Web Services- creating it using .NET framework and Postman API</t>
   </si>
 </sst>
 </file>
@@ -531,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,6 +1126,111 @@
       </c>
       <c r="D32" s="5">
         <v>45196</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45197</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45198</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45202</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="5">
+        <v>45203</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45204</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45205</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886E557A-376A-42DD-8D31-2ECB18836550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C28B4-FA2A-429D-81AA-690F13C7B7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>RESTful Web Services- creating it using .NET framework and Postman API</t>
+  </si>
+  <si>
+    <t>Consuming RESTful Web Services</t>
+  </si>
+  <si>
+    <t>Writing unit test cases</t>
   </si>
 </sst>
 </file>
@@ -546,11 +552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,6 +1237,40 @@
       </c>
       <c r="F38" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45206</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45207</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C28B4-FA2A-429D-81AA-690F13C7B7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A44A9E-84B0-436F-9BF6-4C938B649E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -171,7 +171,16 @@
     <t>Consuming RESTful Web Services</t>
   </si>
   <si>
-    <t>Writing unit test cases</t>
+    <t>Writing unit test cases, code coverage</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Code coverage contd., mock object</t>
   </si>
 </sst>
 </file>
@@ -552,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1185,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>41</v>
@@ -1193,7 +1202,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1210,7 +1219,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>40</v>
@@ -1227,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
@@ -1244,13 +1253,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="5">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>8</v>
@@ -1267,10 +1276,27 @@
         <v>45</v>
       </c>
       <c r="D40" s="5">
-        <v>45207</v>
+        <v>45209</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5">
+        <v>45210</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/LogBook_SandhyaRani.xlsx
+++ b/LogBook_SandhyaRani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRA955\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A44A9E-84B0-436F-9BF6-4C938B649E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE17142-E6A5-402C-BF21-0183DDC36954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DD12CC5D-AE32-498C-ACD0-49A79DBD2107}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>Code coverage contd., mock object</t>
+  </si>
+  <si>
+    <t>Custom DLL, GitHub Workflows</t>
+  </si>
+  <si>
+    <t>Life Cyle of Unit Tests, Difference between Nunit, Xunit and MSTest</t>
+  </si>
+  <si>
+    <t>Best among Nunit, Xunit and MSTest; GitHub Workflows Components - Theory; GitHub Actions, Entity Framework</t>
+  </si>
+  <si>
+    <t>Structure of College Database, Entity Framework</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>Connection with local database in Entity Framework</t>
+  </si>
+  <si>
+    <t>CollegeLoginPortal Project</t>
   </si>
 </sst>
 </file>
@@ -230,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -245,6 +266,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D50240-FFF9-44FA-A19C-7F921D5AB382}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,6 +1324,83 @@
       </c>
       <c r="F41" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="5">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="5">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="5">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="5">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="5">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="5">
+        <v>45224</v>
       </c>
     </row>
   </sheetData>
